--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\AAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETSIAE\MUSE\2 SEMESTRE\FLUENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E260481-0B81-484C-B1C4-2D627904A41A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3FDEB6-EBB4-4164-85A3-C744CB246BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1692" yWindow="1944" windowWidth="21840" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,10 +517,10 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
@@ -617,16 +617,30 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="10">
+        <v>1.576851</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1.5739733</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1.5690701</v>
+      </c>
       <c r="E2" s="10">
         <v>1.5529944</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="F2" s="10">
+        <v>1.5368599999999999</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1.5123469</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1.4779121</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1.4472214999999999</v>
+      </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -657,16 +671,30 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="11">
+        <v>8.2944205000000002E-4</v>
+      </c>
+      <c r="C3" s="11">
+        <v>6.8723828000000001E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.12971878000000001</v>
+      </c>
       <c r="E3" s="11">
         <v>0.19159884999999999</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="F3" s="11">
+        <v>0.25160127999999998</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.30871293</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.36071384000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.41310728000000002</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -697,16 +725,30 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="12">
+        <v>1.3839225000000001E-3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2.8695867000000002E-3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>-9.9504376000000005E-3</v>
+      </c>
       <c r="E4" s="12">
         <v>-1.3616745E-2</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="F4" s="12">
+        <v>-1.6751940999999999E-2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>-1.9679528000000002E-2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-2.3700107000000002E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>-2.8237356000000002E-2</v>
+      </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -737,16 +779,30 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="13">
+        <v>169453.7</v>
+      </c>
+      <c r="C5" s="13">
+        <v>193551.9</v>
+      </c>
+      <c r="D5" s="13">
+        <v>167541.1</v>
+      </c>
       <c r="E5" s="13">
         <v>165738.92000000001</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="F5" s="13">
+        <v>165907</v>
+      </c>
+      <c r="G5" s="13">
+        <v>162572.29999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <v>176279.3</v>
+      </c>
+      <c r="I5" s="13">
+        <v>163059.9</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -777,16 +833,30 @@
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="14">
+        <v>533.61040000000003</v>
+      </c>
+      <c r="C6" s="14">
+        <v>536.36149999999998</v>
+      </c>
+      <c r="D6" s="14">
+        <v>535.14170000000001</v>
+      </c>
       <c r="E6" s="14">
         <v>806.02184999999997</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="F6" s="14">
+        <v>533.49109999999996</v>
+      </c>
+      <c r="G6" s="14">
+        <v>532.68780000000004</v>
+      </c>
+      <c r="H6" s="14">
+        <v>534.63490000000002</v>
+      </c>
+      <c r="I6" s="14">
+        <v>542.48530000000005</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -817,37 +887,37 @@
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="e">
+      <c r="B7" s="15">
         <f>B3/B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" s="15" t="e">
+        <v>5.2601168404624158E-4</v>
+      </c>
+      <c r="C7" s="15">
         <f t="shared" ref="C7:V7" si="1">C3/C2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.3662639004105087E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>8.2672393030751148E-2</v>
       </c>
       <c r="E7" s="15">
         <f>E3/E2</f>
         <v>0.12337381899123395</v>
       </c>
-      <c r="F7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.16371125541688897</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.20412838483022644</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24406988751225464</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.28544855089563004</v>
       </c>
       <c r="J7" s="15" t="e">
         <f t="shared" si="1"/>
@@ -908,15 +978,15 @@
       </c>
       <c r="B8" s="16">
         <f>B5/1951</f>
-        <v>0</v>
+        <v>86.854792414146601</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" ref="C8:V8" si="2">C5/1951</f>
-        <v>0</v>
+        <v>99.206509482316761</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>85.874474628395703</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" si="2"/>
@@ -924,19 +994,19 @@
       </c>
       <c r="F8" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>85.036904151717067</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>83.327678113787798</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90.353305996924647</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>83.577601230138384</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="2"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. AAV\Trabajos_AAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71B6F50-03F1-4606-B1E0-F85C9B4D2252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E22A925-AEA9-4FEA-8D44-96464C3434E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +82,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +191,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB17ED8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,10 +223,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -246,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,16 +268,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,8 +289,13 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,19 +586,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +740,7 @@
         <v>0.66652</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -779,7 +794,7 @@
         <v>0.45406585999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -833,7 +848,7 @@
         <v>-5.9419587000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -847,13 +862,27 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="J5" s="13">
+        <v>182653.2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>168014.5</v>
+      </c>
+      <c r="L5" s="22">
+        <v>266002.59999999998</v>
+      </c>
+      <c r="M5" s="13">
+        <v>172361.60000000001</v>
+      </c>
+      <c r="N5" s="13">
+        <v>171221.6</v>
+      </c>
+      <c r="O5" s="13">
+        <v>170388</v>
+      </c>
+      <c r="P5" s="13">
+        <v>196197.5</v>
+      </c>
       <c r="Q5" s="13">
         <v>196452.22</v>
       </c>
@@ -872,235 +901,236 @@
       <c r="V5" s="13">
         <v>169751.2</v>
       </c>
+      <c r="X5" s="21"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
         <v>806.02184999999997</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
         <v>808.59789999999998</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>1229.944</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <v>805.64919999999995</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>806.1934</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <v>805.83720000000005</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <v>942.72266000000002</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <v>1002.4396</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <v>878.34307999999999</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <v>877.94750999999997</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="15">
         <v>836.18610000000001</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <v>840.86436000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="e">
+      <c r="B7" s="18" t="e">
         <f>B3/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="19" t="e">
+      <c r="C7" s="18" t="e">
         <f t="shared" ref="C7:V7" si="1">C3/C2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="19" t="e">
+      <c r="D7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <f>E3/E2</f>
         <v>0.12337381899123395</v>
       </c>
-      <c r="F7" s="19" t="e">
+      <c r="F7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="19" t="e">
+      <c r="G7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="19" t="e">
+      <c r="H7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="19" t="e">
+      <c r="I7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <f t="shared" si="1"/>
         <v>0.3261167245403313</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <f t="shared" si="1"/>
         <v>0.36676357904803508</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <f t="shared" si="1"/>
         <v>0.41024987499875248</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <f t="shared" si="1"/>
         <v>0.45148229192123174</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <f t="shared" si="1"/>
         <v>0.49290964035060147</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="18">
         <f t="shared" si="1"/>
         <v>0.53368929462438575</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <f t="shared" si="1"/>
         <v>0.57389718526825062</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="18">
         <f t="shared" si="1"/>
         <v>0.613507189199194</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="18">
         <f t="shared" si="1"/>
         <v>0.64602797049778471</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="18">
         <f t="shared" si="1"/>
         <v>0.67273459526220081</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="18">
         <f t="shared" si="1"/>
         <v>0.69116163864232494</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="18">
         <f t="shared" si="1"/>
         <v>0.69361963194117815</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="18">
         <f t="shared" si="1"/>
         <v>0.68124866470623535</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <f>B5/1951</f>
         <v>0</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <f t="shared" ref="C8:V8" si="2">C5/1951</f>
         <v>0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <f t="shared" si="2"/>
         <v>84.950753459764229</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="21">
+      <c r="J8" s="20">
+        <f>J5/1951</f>
+        <v>93.620297283444387</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="2"/>
+        <v>86.117119425935414</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="2"/>
+        <v>136.34167093798052</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="2"/>
+        <v>88.345258841619682</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="2"/>
+        <v>87.760943106099432</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="2"/>
+        <v>87.333675038441825</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="2"/>
+        <v>100.56253203485392</v>
+      </c>
+      <c r="Q8" s="20">
         <f t="shared" si="2"/>
         <v>100.6930907227063</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <f t="shared" si="2"/>
         <v>98.28410046130189</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <f t="shared" si="2"/>
         <v>107.97010251153256</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="20">
         <f t="shared" si="2"/>
         <v>98.808446950281905</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="20">
         <f t="shared" si="2"/>
         <v>86.430943106099434</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="20">
         <f t="shared" si="2"/>
         <v>87.007278318810876</v>
       </c>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETSIAE\MUSE\2 SEMESTRE\FLUENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3FDEB6-EBB4-4164-85A3-C744CB246BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35670D71-9DAC-4898-88C7-7B7DBA5EBF5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ángulo de ataque</t>
   </si>
@@ -59,11 +59,22 @@
   <si>
     <t>p_max [Pa]</t>
   </si>
+  <si>
+    <t>806.084 </t>
+  </si>
+  <si>
+    <t>807.105 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -222,6 +233,42 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +564,10 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
@@ -641,13 +688,27 @@
       <c r="I2" s="10">
         <v>1.4472214999999999</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="J2" s="17">
+        <v>1.4053599999999999</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1.3551759999999999</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1.2981468438999999</v>
+      </c>
+      <c r="M2" s="17">
+        <v>1.2439519999999999</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1.177063</v>
+      </c>
+      <c r="O2" s="17">
+        <v>1.1078920000000001</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1.038003</v>
+      </c>
       <c r="Q2" s="10">
         <v>0.96380067000000003</v>
       </c>
@@ -695,13 +756,27 @@
       <c r="I3" s="11">
         <v>0.41310728000000002</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="J3" s="19">
+        <v>0.45831139999999998</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.4970292</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0.53256458043999999</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.56162230000000002</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0.58018570000000003</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0.59127010000000002</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0.59570699999999999</v>
+      </c>
       <c r="Q3" s="11">
         <v>0.59129863999999999</v>
       </c>
@@ -749,13 +824,27 @@
       <c r="I4" s="12">
         <v>-2.8237356000000002E-2</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="J4" s="21">
+        <v>-3.4074729999999998E-2</v>
+      </c>
+      <c r="K4" s="21">
+        <v>-3.5138129999999997E-2</v>
+      </c>
+      <c r="L4" s="22">
+        <v>-3.730609E-2</v>
+      </c>
+      <c r="M4" s="21">
+        <v>-4.092105E-2</v>
+      </c>
+      <c r="N4" s="21">
+        <v>-4.408339E-2</v>
+      </c>
+      <c r="O4" s="21">
+        <v>-4.6878669999999997E-2</v>
+      </c>
+      <c r="P4" s="21">
+        <v>-5.0098959999999998E-2</v>
+      </c>
       <c r="Q4" s="12">
         <v>-5.3196899999999998E-2</v>
       </c>
@@ -803,13 +892,27 @@
       <c r="I5" s="13">
         <v>163059.9</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="J5" s="23">
+        <v>182653.2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>168014.5</v>
+      </c>
+      <c r="L5" s="28">
+        <v>266002.59999999998</v>
+      </c>
+      <c r="M5" s="23">
+        <v>172361.60000000001</v>
+      </c>
+      <c r="N5" s="23">
+        <v>171221.6</v>
+      </c>
+      <c r="O5" s="23">
+        <v>170388</v>
+      </c>
+      <c r="P5" s="23">
+        <v>196197.5</v>
+      </c>
       <c r="Q5" s="13">
         <v>196452.22</v>
       </c>
@@ -857,13 +960,27 @@
       <c r="I6" s="14">
         <v>542.48530000000005</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="J6" s="24">
+        <v>808.59789999999998</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="25">
+        <v>1229.944</v>
+      </c>
+      <c r="M6" s="24">
+        <v>805.64919999999995</v>
+      </c>
+      <c r="N6" s="24">
+        <v>806.1934</v>
+      </c>
+      <c r="O6" s="24">
+        <v>805.83720000000005</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="Q6" s="14">
         <v>942.72266000000002</v>
       </c>
@@ -919,33 +1036,33 @@
         <f t="shared" si="1"/>
         <v>0.28544855089563004</v>
       </c>
-      <c r="J7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="J7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.3261167245403313</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.36676357904803508</v>
+      </c>
+      <c r="L7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.41024987499875248</v>
+      </c>
+      <c r="M7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.45148229192123174</v>
+      </c>
+      <c r="N7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.49290964035060147</v>
+      </c>
+      <c r="O7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.53368929462438575</v>
+      </c>
+      <c r="P7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.57389718526825062</v>
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
@@ -1008,33 +1125,33 @@
         <f t="shared" si="2"/>
         <v>83.577601230138384</v>
       </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J8" s="27">
+        <f>J5/1951</f>
+        <v>93.620297283444387</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" ref="K8:P8" si="3">K5/1951</f>
+        <v>86.117119425935414</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="3"/>
+        <v>136.34167093798052</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="3"/>
+        <v>88.345258841619682</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" si="3"/>
+        <v>87.760943106099432</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" si="3"/>
+        <v>87.333675038441825</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="3"/>
+        <v>100.56253203485392</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="2"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. AAV\Trabajos_AAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35670D71-9DAC-4898-88C7-7B7DBA5EBF5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D35621-E58B-44B6-88F2-B82EC92A8840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="25">
-        <v>1229.944</v>
+        <v>955.8</v>
       </c>
       <c r="M6" s="24">
         <v>805.64919999999995</v>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. AAV\Trabajos_AAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\AAV\Trabajos_AAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D35621-E58B-44B6-88F2-B82EC92A8840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D663BB-75BD-46B1-9C51-C5107B8F3C56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2592" yWindow="1740" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ángulo de ataque</t>
   </si>
@@ -62,19 +62,11 @@
   <si>
     <t>806.084 </t>
   </si>
-  <si>
-    <t>807.105 </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,9 +207,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,47 +217,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -276,6 +253,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFB17ED8"/>
       <color rgb="FF61BBFF"/>
@@ -306,7 +349,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8C8C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -561,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,95 +616,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="9">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="9">
         <f>B1+2.5</f>
         <v>2.5</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="9">
         <f t="shared" ref="D1:V1" si="0">C1+2.5</f>
         <v>5</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="9">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="9">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="9">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="9">
         <f>J1+2.5</f>
         <v>22.5</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="9">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="9">
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="9">
         <f>O1+2.5</f>
         <v>35</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="9">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="9">
         <f>R1+2.5</f>
         <v>42.5</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="9">
         <f>T1+2.5</f>
         <v>47.5</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10">
@@ -688,25 +731,25 @@
       <c r="I2" s="10">
         <v>1.4472214999999999</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="11">
         <v>1.4053599999999999</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="11">
         <v>1.3551759999999999</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="11">
         <v>1.2981468438999999</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="11">
         <v>1.2439519999999999</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="11">
         <v>1.177063</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="11">
         <v>1.1078920000000001</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="11">
         <v>1.038003</v>
       </c>
       <c r="Q2" s="10">
@@ -729,456 +772,462 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>8.2944205000000002E-4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>6.8723828000000001E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>0.12971878000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>0.19159884999999999</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>0.25160127999999998</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>0.30871293</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>0.36071384000000001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>0.41310728000000002</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="13">
         <v>0.45831139999999998</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="13">
         <v>0.4970292</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="13">
         <v>0.53256458043999999</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="13">
         <v>0.56162230000000002</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="13">
         <v>0.58018570000000003</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="13">
         <v>0.59127010000000002</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="13">
         <v>0.59570699999999999</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="12">
         <v>0.59129863999999999</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="12">
         <v>0.57895964</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="12">
         <v>0.55991696999999996</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="12">
         <v>0.53477067</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="12">
         <v>0.49760347999999999</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="12">
         <v>0.45406585999999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>1.3839225000000001E-3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>2.8695867000000002E-3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <v>-9.9504376000000005E-3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <v>-1.3616745E-2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>-1.6751940999999999E-2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="14">
         <v>-1.9679528000000002E-2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="14">
         <v>-2.3700107000000002E-2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="14">
         <v>-2.8237356000000002E-2</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="15">
         <v>-3.4074729999999998E-2</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="15">
         <v>-3.5138129999999997E-2</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="15">
         <v>-3.730609E-2</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="15">
         <v>-4.092105E-2</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="15">
         <v>-4.408339E-2</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="15">
         <v>-4.6878669999999997E-2</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="15">
         <v>-5.0098959999999998E-2</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="14">
         <v>-5.3196899999999998E-2</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="14">
         <v>-5.7608526E-2</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="14">
         <v>-6.0212123999999999E-2</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="14">
         <v>-6.2350704999999999E-2</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="14">
         <v>-6.1998169999999998E-2</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="14">
         <v>-5.9419587000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="16">
         <v>169453.7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="16">
         <v>193551.9</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>167541.1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>165738.92000000001</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>165907</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="16">
         <v>162572.29999999999</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="16">
         <v>176279.3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="16">
         <v>163059.9</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="17">
         <v>182653.2</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="17">
         <v>168014.5</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="17">
         <v>266002.59999999998</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="17">
         <v>172361.60000000001</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="17">
         <v>171221.6</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="17">
         <v>170388</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="17">
         <v>196197.5</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="16">
         <v>196452.22</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="16">
         <v>191752.28</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="16">
         <v>210649.67</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="16">
         <v>192775.28</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="16">
         <v>168626.77</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="16">
         <v>169751.2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="18">
         <v>533.61040000000003</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="18">
         <v>536.36149999999998</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="18">
         <v>535.14170000000001</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="18">
         <v>806.02184999999997</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="18">
         <v>533.49109999999996</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="18">
         <v>532.68780000000004</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="18">
         <v>534.63490000000002</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="18">
         <v>542.48530000000005</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="19">
         <v>808.59789999999998</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="25">
+      <c r="K6" s="19">
+        <v>806.08399999999995</v>
+      </c>
+      <c r="L6" s="19">
         <v>955.8</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="19">
         <v>805.64919999999995</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="19">
         <v>806.1934</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="19">
         <v>805.83720000000005</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="14">
+      <c r="P6" s="19">
+        <v>807.10500000000002</v>
+      </c>
+      <c r="Q6" s="18">
         <v>942.72266000000002</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="18">
         <v>1002.4396</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="18">
         <v>878.34307999999999</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="18">
         <v>877.94750999999997</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="18">
         <v>836.18610000000001</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="18">
         <v>840.86436000000003</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="20">
         <f>B3/B2</f>
         <v>5.2601168404624158E-4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="20">
         <f t="shared" ref="C7:V7" si="1">C3/C2</f>
         <v>4.3662639004105087E-2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="20">
         <f t="shared" si="1"/>
         <v>8.2672393030751148E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="20">
         <f>E3/E2</f>
         <v>0.12337381899123395</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="20">
         <f t="shared" si="1"/>
         <v>0.16371125541688897</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
         <v>0.20412838483022644</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="20">
         <f t="shared" si="1"/>
         <v>0.24406988751225464</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="20">
         <f t="shared" si="1"/>
         <v>0.28544855089563004</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="21">
         <f t="shared" si="1"/>
         <v>0.3261167245403313</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="21">
         <f t="shared" si="1"/>
         <v>0.36676357904803508</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="21">
         <f t="shared" si="1"/>
         <v>0.41024987499875248</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="21">
         <f t="shared" si="1"/>
         <v>0.45148229192123174</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="21">
         <f t="shared" si="1"/>
         <v>0.49290964035060147</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="21">
         <f t="shared" si="1"/>
         <v>0.53368929462438575</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="21">
         <f t="shared" si="1"/>
         <v>0.57389718526825062</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="20">
         <f t="shared" si="1"/>
         <v>0.613507189199194</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="20">
         <f t="shared" si="1"/>
         <v>0.64602797049778471</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="20">
         <f t="shared" si="1"/>
         <v>0.67273459526220081</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="20">
         <f t="shared" si="1"/>
         <v>0.69116163864232494</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="20">
         <f t="shared" si="1"/>
         <v>0.69361963194117815</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="20">
         <f t="shared" si="1"/>
         <v>0.68124866470623535</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="22">
         <f>B5/1951</f>
         <v>86.854792414146601</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="22">
         <f t="shared" ref="C8:V8" si="2">C5/1951</f>
         <v>99.206509482316761</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="22">
         <f t="shared" si="2"/>
         <v>85.874474628395703</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="22">
         <f t="shared" si="2"/>
         <v>84.950753459764229</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="22">
         <f t="shared" si="2"/>
         <v>85.036904151717067</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="22">
         <f t="shared" si="2"/>
         <v>83.327678113787798</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="22">
         <f t="shared" si="2"/>
         <v>90.353305996924647</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="22">
         <f t="shared" si="2"/>
         <v>83.577601230138384</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="23">
         <f>J5/1951</f>
         <v>93.620297283444387</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="23">
         <f t="shared" ref="K8:P8" si="3">K5/1951</f>
         <v>86.117119425935414</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="23">
         <f t="shared" si="3"/>
         <v>136.34167093798052</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="23">
         <f t="shared" si="3"/>
         <v>88.345258841619682</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="23">
         <f t="shared" si="3"/>
         <v>87.760943106099432</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="23">
         <f t="shared" si="3"/>
         <v>87.333675038441825</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="23">
         <f t="shared" si="3"/>
         <v>100.56253203485392</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="22">
         <f t="shared" si="2"/>
         <v>100.6930907227063</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="22">
         <f t="shared" si="2"/>
         <v>98.28410046130189</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="22">
         <f t="shared" si="2"/>
         <v>107.97010251153256</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="22">
         <f t="shared" si="2"/>
         <v>98.808446950281905</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="22">
         <f t="shared" si="2"/>
         <v>86.430943106099434</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="22">
         <f t="shared" si="2"/>
         <v>87.007278318810876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>